--- a/data_files/sample_data.xlsx
+++ b/data_files/sample_data.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ستارة ثقيل</t>
+          <t>قماش</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -610,16 +610,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3641.46</v>
+        <v>2301.41</v>
       </c>
       <c r="G2" t="n">
-        <v>2435.52</v>
+        <v>1154.54</v>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -638,7 +638,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>إكسسوار</t>
+          <t>قماش</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3940.32</v>
+        <v>4347.03</v>
       </c>
       <c r="G3" t="n">
-        <v>377.74</v>
+        <v>446.94</v>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -680,7 +680,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>إكسسوار</t>
+          <t>قماش</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -690,20 +690,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>meter</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2212.83</v>
+        <v>4042.45</v>
       </c>
       <c r="G4" t="n">
-        <v>2219.18</v>
+        <v>1180.34</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I4" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -722,7 +722,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>إكسسوار</t>
+          <t>ستارة ثقيل</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -732,20 +732,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>piece</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1543.95</v>
+        <v>4707.35</v>
       </c>
       <c r="G5" t="n">
-        <v>2491.43</v>
+        <v>2440.89</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -764,7 +764,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>مفروشات</t>
+          <t>إكسسوار</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -774,20 +774,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>sqm</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4087.81</v>
+        <v>2720.95</v>
       </c>
       <c r="G6" t="n">
-        <v>2109.62</v>
+        <v>947.51</v>
       </c>
       <c r="H6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -806,7 +806,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>قماش</t>
+          <t>مفروشات</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -820,16 +820,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1097.64</v>
+        <v>2935.29</v>
       </c>
       <c r="G7" t="n">
-        <v>831</v>
+        <v>582.29</v>
       </c>
       <c r="H7" t="n">
         <v>19</v>
       </c>
       <c r="I7" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -848,7 +848,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ستارة خفيف</t>
+          <t>قماش</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -858,20 +858,20 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sqm</t>
+          <t>piece</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2937.45</v>
+        <v>3899.71</v>
       </c>
       <c r="G8" t="n">
-        <v>715.76</v>
+        <v>2441.79</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -890,7 +890,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ستارة خفيف</t>
+          <t>قماش</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1380.47</v>
+        <v>1743.1</v>
       </c>
       <c r="G9" t="n">
-        <v>1414.24</v>
+        <v>596.74</v>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -932,7 +932,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>مفروشات</t>
+          <t>إكسسوار</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -942,20 +942,20 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1547.81</v>
+        <v>4550.22</v>
       </c>
       <c r="G10" t="n">
-        <v>474.18</v>
+        <v>259.04</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -974,7 +974,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>إكسسوار</t>
+          <t>قماش</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -988,16 +988,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1690.42</v>
+        <v>1714.64</v>
       </c>
       <c r="G11" t="n">
-        <v>694.66</v>
+        <v>918.87</v>
       </c>
       <c r="H11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>قماش</t>
+          <t>ستارة خفيف</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1026,20 +1026,20 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>piece</t>
+          <t>meter</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4912.52</v>
+        <v>2797.81</v>
       </c>
       <c r="G12" t="n">
-        <v>2152.88</v>
+        <v>1586.05</v>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>قماش</t>
+          <t>ستارة خفيف</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1068,20 +1068,20 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>sqm</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3773.81</v>
+        <v>2307.64</v>
       </c>
       <c r="G13" t="n">
-        <v>403.6</v>
+        <v>783.3099999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I13" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>قماش</t>
+          <t>ستارة ثقيل</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1110,20 +1110,20 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>piece</t>
+          <t>sqm</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2544.38</v>
+        <v>4160.85</v>
       </c>
       <c r="G14" t="n">
-        <v>639.48</v>
+        <v>2791.3</v>
       </c>
       <c r="H14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I14" t="n">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>إكسسوار</t>
+          <t>مفروشات</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1152,20 +1152,20 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>piece</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1005.69</v>
+        <v>1999.5</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.87</v>
+        <v>2556.13</v>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I15" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>إكسسوار</t>
+          <t>ستارة ثقيل</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1194,20 +1194,20 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>piece</t>
+          <t>sqm</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2819.61</v>
+        <v>3262.22</v>
       </c>
       <c r="G16" t="n">
-        <v>2832.76</v>
+        <v>2112.67</v>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>إكسسوار</t>
+          <t>ستارة خفيف</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1240,16 +1240,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>104.2</v>
+        <v>3715.33</v>
       </c>
       <c r="G17" t="n">
-        <v>1961.56</v>
+        <v>97.44</v>
       </c>
       <c r="H17" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ستارة ثقيل</t>
+          <t>إكسسوار</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1278,20 +1278,20 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>sqm</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1299.28</v>
+        <v>3212.11</v>
       </c>
       <c r="G18" t="n">
-        <v>2705.95</v>
+        <v>944.2</v>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J18" t="b">
         <v>1</v>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>إكسسوار</t>
+          <t>ستارة ثقيل</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1320,20 +1320,20 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>piece</t>
+          <t>meter</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1338.03</v>
+        <v>4470.56</v>
       </c>
       <c r="G19" t="n">
-        <v>215.35</v>
+        <v>1521.86</v>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I19" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -1366,16 +1366,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2813.79</v>
+        <v>4822.89</v>
       </c>
       <c r="G20" t="n">
-        <v>1268.57</v>
+        <v>2720.64</v>
       </c>
       <c r="H20" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I20" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
@@ -1404,20 +1404,20 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>piece</t>
+          <t>sqm</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3301.81</v>
+        <v>3824.51</v>
       </c>
       <c r="G21" t="n">
-        <v>2928.55</v>
+        <v>614.65</v>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J21" t="b">
         <v>1</v>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>قماش</t>
+          <t>ستارة ثقيل</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1450,16 +1450,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>331.59</v>
+        <v>4561.96</v>
       </c>
       <c r="G22" t="n">
-        <v>1843.42</v>
+        <v>1013.08</v>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I22" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J22" t="b">
         <v>1</v>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ستارة خفيف</t>
+          <t>ستارة ثقيل</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1488,20 +1488,20 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>piece</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2870.85</v>
+        <v>4996.25</v>
       </c>
       <c r="G23" t="n">
-        <v>612.64</v>
+        <v>964.3</v>
       </c>
       <c r="H23" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I23" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J23" t="b">
         <v>1</v>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>مفروشات</t>
+          <t>قماش</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1534,16 +1534,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4455</v>
+        <v>3847.46</v>
       </c>
       <c r="G24" t="n">
-        <v>922.33</v>
+        <v>1327.91</v>
       </c>
       <c r="H24" t="n">
+        <v>12</v>
+      </c>
+      <c r="I24" t="n">
         <v>10</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
       </c>
       <c r="J24" t="b">
         <v>1</v>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ستارة خفيف</t>
+          <t>ستارة ثقيل</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1576,16 +1576,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1198.51</v>
+        <v>2148.17</v>
       </c>
       <c r="G25" t="n">
-        <v>2238.39</v>
+        <v>972.97</v>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ستارة ثقيل</t>
+          <t>إكسسوار</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1614,20 +1614,20 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>piece</t>
+          <t>sqm</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1281.45</v>
+        <v>4832.81</v>
       </c>
       <c r="G26" t="n">
-        <v>763.04</v>
+        <v>675</v>
       </c>
       <c r="H26" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I26" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ستارة ثقيل</t>
+          <t>ستارة خفيف</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1656,20 +1656,20 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sqm</t>
+          <t>meter</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>312.43</v>
+        <v>4731.41</v>
       </c>
       <c r="G27" t="n">
-        <v>2589.05</v>
+        <v>1936.59</v>
       </c>
       <c r="H27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ستارة خفيف</t>
+          <t>ستارة ثقيل</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1702,16 +1702,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>567.39</v>
+        <v>51.85</v>
       </c>
       <c r="G28" t="n">
-        <v>2933.72</v>
+        <v>980.16</v>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I28" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J28" t="b">
         <v>1</v>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ستارة ثقيل</t>
+          <t>إكسسوار</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1740,20 +1740,20 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>meter</t>
+          <t>piece</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1018.59</v>
+        <v>1948.64</v>
       </c>
       <c r="G29" t="n">
-        <v>1743.86</v>
+        <v>1505.18</v>
       </c>
       <c r="H29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I29" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>مفروشات</t>
+          <t>ستارة خفيف</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1782,20 +1782,20 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>piece</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1580.57</v>
+        <v>4990.72</v>
       </c>
       <c r="G30" t="n">
-        <v>2873.12</v>
+        <v>1821.15</v>
       </c>
       <c r="H30" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I30" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ستارة خفيف</t>
+          <t>ستارة ثقيل</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1824,20 +1824,20 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>piece</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3478.17</v>
+        <v>554.3099999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>1677.26</v>
+        <v>535.24</v>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J31" t="b">
         <v>1</v>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0158924418</t>
+          <t>0124223075</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0158800209</t>
+          <t>0113529063</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0129830283</t>
+          <t>0159195761</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0177179097</t>
+          <t>0196443286</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0111977210</t>
+          <t>0192670860</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0121995873</t>
+          <t>0136011362</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2134,7 +2134,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0119801366</t>
+          <t>0141713268</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0184856840</t>
+          <t>0150795329</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0141607232</t>
+          <t>0121829776</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0184068847</t>
+          <t>0153629934</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>corporate</t>
+          <t>retail</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2454,7 +2454,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0184127868</t>
+          <t>0132983740</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2496,17 +2496,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>wholesale</t>
+          <t>retail</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>عميل VIP</t>
+          <t>عميل مميز</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0133826643</t>
+          <t>0184860266</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2548,17 +2548,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>corporate</t>
+          <t>retail</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>عميل VIP</t>
+          <t>مصمم</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0117341454</t>
+          <t>0176202043</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2600,17 +2600,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>corporate</t>
+          <t>retail</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>مصمم</t>
+          <t>شركة</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0188711287</t>
+          <t>0190457676</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -2652,17 +2652,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>wholesale</t>
+          <t>retail</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>شركة</t>
+          <t>عميل VIP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0127664116</t>
+          <t>0151056535</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2704,17 +2704,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>retail</t>
+          <t>wholesale</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>عميل VIP</t>
+          <t>عميل عادي</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0134540359</t>
+          <t>0133602711</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2756,17 +2756,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>corporate</t>
+          <t>retail</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>عميل مميز</t>
+          <t>عميل عادي</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0177762772</t>
+          <t>0118045740</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -2813,12 +2813,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>مصمم</t>
+          <t>شركة</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0130107631</t>
+          <t>0155011839</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -2865,12 +2865,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>عميل VIP</t>
+          <t>عميل عادي</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0121827864</t>
+          <t>0150318284</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>corporate</t>
+          <t>retail</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0174762700</t>
+          <t>0146065308</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2969,12 +2969,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>عميل مميز</t>
+          <t>عميل VIP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0120991296</t>
+          <t>0131625514</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -3021,12 +3021,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>عميل مميز</t>
+          <t>مصمم</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0140815982</t>
+          <t>0149942779</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -3068,17 +3068,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>retail</t>
+          <t>wholesale</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>مصمم</t>
+          <t>شركة</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0120788060</t>
+          <t>0111601673</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>wholesale</t>
+          <t>retail</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0110707655</t>
+          <t>0153584170</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -3172,17 +3172,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>corporate</t>
+          <t>retail</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>مصمم</t>
+          <t>شركة</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0159914783</t>
+          <t>0194745907</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0153923881</t>
+          <t>0130979016</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3276,17 +3276,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>wholesale</t>
+          <t>corporate</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>عميل VIP</t>
+          <t>عميل عادي</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0177572013</t>
+          <t>0199747209</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -3328,17 +3328,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>wholesale</t>
+          <t>retail</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>عميل عادي</t>
+          <t>مصمم</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0161370790</t>
+          <t>0110652655</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3385,12 +3385,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>عميل مميز</t>
+          <t>عميل عادي</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0121479818</t>
+          <t>0180228717</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -3432,17 +3432,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>retail</t>
+          <t>corporate</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>مصمم</t>
+          <t>عميل مميز</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0123902776</t>
+          <t>0131897087</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -3484,17 +3484,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>wholesale</t>
+          <t>retail</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>عميل VIP</t>
+          <t>مصمم</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0143421795</t>
+          <t>0170264739</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -3536,17 +3536,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>retail</t>
+          <t>wholesale</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>شركة</t>
+          <t>عميل عادي</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0136052940</t>
+          <t>0157900969</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>corporate</t>
+          <t>retail</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0127646373</t>
+          <t>0192228723</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3640,17 +3640,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>retail</t>
+          <t>wholesale</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>عميل عادي</t>
+          <t>شركة</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0169397748</t>
+          <t>0166152109</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3692,17 +3692,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>retail</t>
+          <t>corporate</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>مصمم</t>
+          <t>عميل مميز</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0157418389</t>
+          <t>0167200616</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0122627576</t>
+          <t>0158570788</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>عميل مميز</t>
+          <t>عميل VIP</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0134842988</t>
+          <t>0129442599</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3848,17 +3848,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>corporate</t>
+          <t>wholesale</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>عميل مميز</t>
+          <t>عميل VIP</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0134840916</t>
+          <t>0117647051</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3905,12 +3905,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>عميل VIP</t>
+          <t>مصمم</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0159135254</t>
+          <t>0170573802</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3957,12 +3957,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>عميل عادي</t>
+          <t>شركة</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0187833243</t>
+          <t>0191207769</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -4004,17 +4004,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>wholesale</t>
+          <t>retail</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>شركة</t>
+          <t>عميل عادي</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0116904682</t>
+          <t>0168290343</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>retail</t>
+          <t>wholesale</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0194655498</t>
+          <t>0174120014</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -4108,17 +4108,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>corporate</t>
+          <t>retail</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>مصمم</t>
+          <t>شركة</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0119212501</t>
+          <t>0158282321</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4165,12 +4165,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>عميل عادي</t>
+          <t>مصمم</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0143063519</t>
+          <t>0178354838</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4212,17 +4212,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>retail</t>
+          <t>corporate</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>عميل عادي</t>
+          <t>مصمم</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0119360762</t>
+          <t>0180620390</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4264,17 +4264,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>corporate</t>
+          <t>retail</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>عميل مميز</t>
+          <t>عميل VIP</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0153484731</t>
+          <t>0155396534</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4316,17 +4316,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>corporate</t>
+          <t>wholesale</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>عميل مميز</t>
+          <t>عميل عادي</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0141095774</t>
+          <t>0136486889</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>wholesale</t>
+          <t>corporate</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0173449983</t>
+          <t>0112260505</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0182684483</t>
+          <t>0125050420</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4472,7 +4472,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>wholesale</t>
+          <t>corporate</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0123479395</t>
+          <t>0199005809</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4524,17 +4524,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>corporate</t>
+          <t>wholesale</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>شركة</t>
+          <t>عميل عادي</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0121573868</t>
+          <t>0185375000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4576,17 +4576,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>wholesale</t>
+          <t>corporate</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>مصمم</t>
+          <t>عميل مميز</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0119383770</t>
+          <t>0197666876</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4628,17 +4628,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>retail</t>
+          <t>wholesale</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>عميل مميز</t>
+          <t>عميل VIP</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0153258335</t>
+          <t>0132840910</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4680,17 +4680,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>retail</t>
+          <t>corporate</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>عميل مميز</t>
+          <t>عميل VIP</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0172247872</t>
+          <t>0185932107</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0110129117</t>
+          <t>0179462837</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4784,17 +4784,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>wholesale</t>
+          <t>retail</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>عميل مميز</t>
+          <t>عميل VIP</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0188549296</t>
+          <t>0114596330</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>corporate</t>
+          <t>wholesale</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0122392923</t>
+          <t>0172462590</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4893,12 +4893,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>عميل VIP</t>
+          <t>شركة</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0147850473</t>
+          <t>0123868549</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4940,17 +4940,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>wholesale</t>
+          <t>corporate</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>شركة</t>
+          <t>عميل VIP</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0113440595</t>
+          <t>0172538517</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4992,17 +4992,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>wholesale</t>
+          <t>retail</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>مصمم</t>
+          <t>شركة</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0153070073</t>
+          <t>0186519223</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5125,17 +5125,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>عميل 32</t>
+          <t>عميل 41</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST032</t>
+          <t>CUST041</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>عنوان العميل 32، القاهرة</t>
+          <t>عنوان العميل 41، القاهرة</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -5155,7 +5155,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>warehouse</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5169,13 +5169,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>12644.56</v>
+        <v>39436.47</v>
       </c>
       <c r="L2" t="n">
-        <v>9483.42</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3161.139999999999</v>
+        <v>39436.47</v>
       </c>
     </row>
     <row r="3">
@@ -5186,17 +5186,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>عميل 1</t>
+          <t>عميل 4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST001</t>
+          <t>CUST004</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -5206,17 +5206,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>عنوان العميل 1، القاهرة</t>
+          <t>عنوان العميل 4، القاهرة</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>vip</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ready</t>
+          <t>delivered</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -5230,13 +5230,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>64847</v>
+        <v>38158.61</v>
       </c>
       <c r="L3" t="n">
-        <v>16211.75</v>
+        <v>38158.61</v>
       </c>
       <c r="M3" t="n">
-        <v>48635.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5247,25 +5247,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>عميل 23</t>
+          <t>عميل 15</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST023</t>
+          <t>CUST015</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-02-06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>branch</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>عنوان العميل 15، القاهرة</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>normal</t>
@@ -5273,12 +5277,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>warehouse</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -5287,13 +5291,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>61759.03</v>
+        <v>13048.88</v>
       </c>
       <c r="L4" t="n">
-        <v>15439.7575</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>46319.2725</v>
+        <v>13048.88</v>
       </c>
     </row>
     <row r="5">
@@ -5304,29 +5308,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>عميل 2</t>
+          <t>عميل 41</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST002</t>
+          <t>CUST041</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>عنوان العميل 2، القاهرة</t>
-        </is>
-      </c>
+          <t>branch</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>vip</t>
@@ -5334,12 +5334,12 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>factory</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -5348,13 +5348,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>48589.82</v>
+        <v>50401.83</v>
       </c>
       <c r="L5" t="n">
-        <v>24294.91</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>24294.91</v>
+        <v>50401.83</v>
       </c>
     </row>
     <row r="6">
@@ -5365,17 +5365,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>عميل 18</t>
+          <t>عميل 15</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST018</t>
+          <t>CUST015</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -5386,17 +5386,17 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>vip</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>factory</t>
+          <t>delivered</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -5405,13 +5405,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>41125.87</v>
+        <v>11191.24</v>
       </c>
       <c r="L6" t="n">
+        <v>11191.24</v>
+      </c>
+      <c r="M6" t="n">
         <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>41125.87</v>
       </c>
     </row>
     <row r="7">
@@ -5422,25 +5422,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>عميل 46</t>
+          <t>عميل 23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST046</t>
+          <t>CUST023</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>branch</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>عنوان العميل 23، القاهرة</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>normal</t>
@@ -5448,7 +5452,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>ready</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -5462,13 +5466,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>45573.77</v>
+        <v>44966.25</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>22483.125</v>
       </c>
       <c r="M7" t="n">
-        <v>45573.77</v>
+        <v>22483.125</v>
       </c>
     </row>
     <row r="8">
@@ -5479,38 +5483,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>عميل 49</t>
+          <t>عميل 40</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST049</t>
+          <t>CUST040</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>branch</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>عنوان العميل 40، القاهرة</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>vip</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>factory</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -5519,13 +5527,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>6902.35</v>
+        <v>104341.84</v>
       </c>
       <c r="L8" t="n">
-        <v>6902.35</v>
+        <v>26085.46</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>78256.38</v>
       </c>
     </row>
     <row r="9">
@@ -5536,17 +5544,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>عميل 25</t>
+          <t>عميل 50</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST025</t>
+          <t>CUST050</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-03-21</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -5556,22 +5564,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>عنوان العميل 25، القاهرة</t>
+          <t>عنوان العميل 50، القاهرة</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>vip</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>factory</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -5580,13 +5588,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>24873.01</v>
+        <v>65825.46000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>24873.01</v>
+        <v>32912.73</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>32912.73</v>
       </c>
     </row>
     <row r="10">
@@ -5597,42 +5605,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>عميل 39</t>
+          <t>عميل 34</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST039</t>
+          <t>CUST034</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>عنوان العميل 39، القاهرة</t>
-        </is>
-      </c>
+          <t>branch</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>vip</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>warehouse</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -5641,13 +5645,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>57145.41</v>
+        <v>74086.2</v>
       </c>
       <c r="L10" t="n">
-        <v>42859.0575</v>
+        <v>37043.1</v>
       </c>
       <c r="M10" t="n">
-        <v>14286.3525</v>
+        <v>37043.1</v>
       </c>
     </row>
     <row r="11">
@@ -5658,29 +5662,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>عميل 12</t>
+          <t>عميل 13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST012</t>
+          <t>CUST013</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>عنوان العميل 12، القاهرة</t>
-        </is>
-      </c>
+          <t>branch</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>vip</t>
@@ -5688,12 +5688,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>cutting</t>
+          <t>ready</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -5702,13 +5702,13 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>37137.19</v>
+        <v>125484.1</v>
       </c>
       <c r="L11" t="n">
+        <v>125484.1</v>
+      </c>
+      <c r="M11" t="n">
         <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>37137.19</v>
       </c>
     </row>
     <row r="12">
@@ -5719,37 +5719,33 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>عميل 32</t>
+          <t>عميل 8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST032</t>
+          <t>CUST008</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>عنوان العميل 32، القاهرة</t>
-        </is>
-      </c>
+          <t>branch</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>vip</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -5763,13 +5759,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>115236.87</v>
+        <v>94642.79999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>115236.87</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>94642.79999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5780,33 +5776,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>عميل 34</t>
+          <t>عميل 39</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST034</t>
+          <t>CUST039</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>branch</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>عنوان العميل 39، القاهرة</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>vip</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>warehouse</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5820,13 +5820,13 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>14354.25</v>
+        <v>13267.96</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>14354.25</v>
+        <v>13267.96</v>
       </c>
     </row>
     <row r="14">
@@ -5837,29 +5837,25 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>عميل 37</t>
+          <t>عميل 8</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST037</t>
+          <t>CUST008</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>عنوان العميل 37، القاهرة</t>
-        </is>
-      </c>
+          <t>branch</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>vip</t>
@@ -5867,12 +5863,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>warehouse</t>
+          <t>delivered</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -5881,13 +5877,13 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>14068.75</v>
+        <v>82723.03</v>
       </c>
       <c r="L14" t="n">
-        <v>10551.5625</v>
+        <v>20680.7575</v>
       </c>
       <c r="M14" t="n">
-        <v>3517.1875</v>
+        <v>62042.2725</v>
       </c>
     </row>
     <row r="15">
@@ -5898,38 +5894,42 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>عميل 36</t>
+          <t>عميل 30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST036</t>
+          <t>CUST030</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-01-27</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>branch</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>عنوان العميل 30، القاهرة</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>vip</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>warehouse</t>
+          <t>delivered</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -5938,13 +5938,13 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>5040.32</v>
+        <v>43470.3</v>
       </c>
       <c r="L15" t="n">
-        <v>3780.24</v>
+        <v>21735.15</v>
       </c>
       <c r="M15" t="n">
-        <v>1260.08</v>
+        <v>21735.15</v>
       </c>
     </row>
     <row r="16">
@@ -5955,37 +5955,33 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>عميل 41</t>
+          <t>عميل 8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST041</t>
+          <t>CUST008</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>عنوان العميل 41، القاهرة</t>
-        </is>
-      </c>
+          <t>branch</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>vip</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>warehouse</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -5999,13 +5995,13 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>3628.5</v>
+        <v>48169.02</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>36126.765</v>
       </c>
       <c r="M16" t="n">
-        <v>3628.5</v>
+        <v>12042.255</v>
       </c>
     </row>
     <row r="17">
@@ -6016,42 +6012,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>عميل 29</t>
+          <t>عميل 16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST029</t>
+          <t>CUST016</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-07</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>عنوان العميل 29، القاهرة</t>
-        </is>
-      </c>
+          <t>branch</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>vip</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ready</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -6060,13 +6052,13 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>16658.96</v>
+        <v>18576.65</v>
       </c>
       <c r="L17" t="n">
+        <v>18576.65</v>
+      </c>
+      <c r="M17" t="n">
         <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>16658.96</v>
       </c>
     </row>
     <row r="18">
@@ -6077,37 +6069,33 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>عميل 2</t>
+          <t>عميل 32</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST002</t>
+          <t>CUST032</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>عنوان العميل 2، القاهرة</t>
-        </is>
-      </c>
+          <t>branch</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>vip</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>warehouse</t>
+          <t>delivered</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -6121,13 +6109,13 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>54887.05</v>
+        <v>19625.34</v>
       </c>
       <c r="L18" t="n">
-        <v>54887.05</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>19625.34</v>
       </c>
     </row>
     <row r="19">
@@ -6138,42 +6126,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>عميل 47</t>
+          <t>عميل 32</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST047</t>
+          <t>CUST032</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>عنوان العميل 47، القاهرة</t>
-        </is>
-      </c>
+          <t>branch</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>vip</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>factory</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -6182,13 +6166,13 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>30688.31</v>
+        <v>35268.66</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>8817.165000000001</v>
       </c>
       <c r="M19" t="n">
-        <v>30688.31</v>
+        <v>26451.495</v>
       </c>
     </row>
     <row r="20">
@@ -6199,17 +6183,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>عميل 23</t>
+          <t>عميل 38</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST023</t>
+          <t>CUST038</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -6225,12 +6209,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>factory</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -6239,13 +6223,13 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>58709.17</v>
+        <v>108859.51</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>54429.75499999999</v>
       </c>
       <c r="M20" t="n">
-        <v>58709.17</v>
+        <v>54429.75499999999</v>
       </c>
     </row>
     <row r="21">
@@ -6256,25 +6240,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>عميل 12</t>
+          <t>عميل 33</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST012</t>
+          <t>CUST033</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-02-11</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>branch</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>عنوان العميل 33، القاهرة</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>normal</t>
@@ -6296,13 +6284,13 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>41697.62</v>
+        <v>57769</v>
       </c>
       <c r="L21" t="n">
-        <v>31273.215</v>
+        <v>14442.25</v>
       </c>
       <c r="M21" t="n">
-        <v>10424.405</v>
+        <v>43326.75</v>
       </c>
     </row>
     <row r="22">
@@ -6313,25 +6301,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>عميل 9</t>
+          <t>عميل 26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST009</t>
+          <t>CUST026</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025-01-24</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>branch</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>عنوان العميل 26، القاهرة</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>vip</t>
@@ -6339,7 +6331,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cutting</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -6353,13 +6345,13 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>20425.6</v>
+        <v>13455.89</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3363.9725</v>
       </c>
       <c r="M22" t="n">
-        <v>20425.6</v>
+        <v>10091.9175</v>
       </c>
     </row>
     <row r="23">
@@ -6370,33 +6362,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>عميل 24</t>
+          <t>عميل 25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST024</t>
+          <t>CUST025</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>branch</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>عنوان العميل 25، القاهرة</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>vip</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>processing</t>
+          <t>cutting</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -6410,13 +6406,13 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>16968.45</v>
+        <v>9123.92</v>
       </c>
       <c r="L23" t="n">
-        <v>12726.3375</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4242.112499999999</v>
+        <v>9123.92</v>
       </c>
     </row>
     <row r="24">
@@ -6427,25 +6423,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>عميل 45</t>
+          <t>عميل 6</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST045</t>
+          <t>CUST006</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>branch</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>عنوان العميل 6، القاهرة</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>normal</t>
@@ -6453,12 +6453,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>warehouse</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -6467,13 +6467,13 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>17661.46</v>
+        <v>34501.64</v>
       </c>
       <c r="L24" t="n">
-        <v>4415.365</v>
+        <v>17250.82</v>
       </c>
       <c r="M24" t="n">
-        <v>13246.095</v>
+        <v>17250.82</v>
       </c>
     </row>
     <row r="25">
@@ -6484,42 +6484,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>عميل 19</t>
+          <t>عميل 33</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST019</t>
+          <t>CUST033</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025-01-22</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>عنوان العميل 19، القاهرة</t>
-        </is>
-      </c>
+          <t>branch</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>vip</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>processing</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -6528,13 +6524,13 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>65112.69</v>
+        <v>19046.65</v>
       </c>
       <c r="L25" t="n">
-        <v>16278.1725</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>48834.5175</v>
+        <v>19046.65</v>
       </c>
     </row>
     <row r="26">
@@ -6545,17 +6541,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>عميل 41</t>
+          <t>عميل 47</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST041</t>
+          <t>CUST047</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-01-21</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6565,7 +6561,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>عنوان العميل 41، القاهرة</t>
+          <t>عنوان العميل 47، القاهرة</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -6575,12 +6571,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>ready</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -6589,13 +6585,13 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>74364.57000000001</v>
+        <v>98280.32999999999</v>
       </c>
       <c r="L26" t="n">
-        <v>74364.57000000001</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>98280.32999999999</v>
       </c>
     </row>
     <row r="27">
@@ -6606,29 +6602,25 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>عميل 24</t>
+          <t>عميل 26</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST024</t>
+          <t>CUST026</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>عنوان العميل 24، القاهرة</t>
-        </is>
-      </c>
+          <t>branch</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
           <t>vip</t>
@@ -6636,12 +6628,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>factory</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -6650,13 +6642,13 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>18511.62</v>
+        <v>54894.23</v>
       </c>
       <c r="L27" t="n">
-        <v>13883.715</v>
+        <v>27447.115</v>
       </c>
       <c r="M27" t="n">
-        <v>4627.905000000001</v>
+        <v>27447.115</v>
       </c>
     </row>
     <row r="28">
@@ -6667,37 +6659,33 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>عميل 14</t>
+          <t>عميل 34</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST014</t>
+          <t>CUST034</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-03-24</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>عنوان العميل 14، القاهرة</t>
-        </is>
-      </c>
+          <t>branch</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>vip</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>warehouse</t>
+          <t>cutting</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -6711,13 +6699,13 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>24886.75</v>
+        <v>122359.02</v>
       </c>
       <c r="L28" t="n">
+        <v>122359.02</v>
+      </c>
+      <c r="M28" t="n">
         <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>24886.75</v>
       </c>
     </row>
     <row r="29">
@@ -6728,17 +6716,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>عميل 9</t>
+          <t>عميل 40</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST009</t>
+          <t>CUST040</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -6749,17 +6737,17 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>vip</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>cutting</t>
+          <t>warehouse</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>product</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -6768,13 +6756,13 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>41702.74</v>
+        <v>55699.45</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>41774.58749999999</v>
       </c>
       <c r="M29" t="n">
-        <v>41702.74</v>
+        <v>13924.8625</v>
       </c>
     </row>
     <row r="30">
@@ -6785,29 +6773,25 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>عميل 27</t>
+          <t>عميل 45</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST027</t>
+          <t>CUST045</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-01-31</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>home</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>عنوان العميل 27، القاهرة</t>
-        </is>
-      </c>
+          <t>branch</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>normal</t>
@@ -6815,12 +6799,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>ready</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>service</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -6829,13 +6813,13 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>53609.46999999999</v>
+        <v>9116.969999999999</v>
       </c>
       <c r="L30" t="n">
-        <v>40207.10249999999</v>
+        <v>4558.485</v>
       </c>
       <c r="M30" t="n">
-        <v>13402.3675</v>
+        <v>4558.485</v>
       </c>
     </row>
     <row r="31">
@@ -6846,25 +6830,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>عميل 22</t>
+          <t>عميل 5</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST022</t>
+          <t>CUST005</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-22</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>branch</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>عنوان العميل 5، القاهرة</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
           <t>vip</t>
@@ -6872,7 +6860,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -6886,13 +6874,13 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>2011.38</v>
+        <v>56595.77</v>
       </c>
       <c r="L31" t="n">
-        <v>2011.38</v>
+        <v>28297.885</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>28297.885</v>
       </c>
     </row>
   </sheetData>
@@ -6906,7 +6894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6964,19 +6952,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PROD029</t>
+          <t>PROD014</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>منتج 29</t>
+          <t>منتج 14</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>1580.57</v>
+        <v>1999.5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -6997,24 +6985,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORD00002</t>
+          <t>ORD00001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PROD002</t>
+          <t>PROD016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>منتج 2</t>
+          <t>منتج 16</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>3940.32</v>
+        <v>3715.33</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -7023,12 +7011,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 2</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 1</t>
         </is>
       </c>
     </row>
@@ -7040,19 +7028,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PROD013</t>
+          <t>PROD030</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>منتج 13</t>
+          <t>منتج 30</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>2544.38</v>
+        <v>554.3099999999999</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -7061,12 +7049,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ready</t>
+          <t>delivered</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 2</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 2</t>
         </is>
       </c>
     </row>
@@ -7078,19 +7066,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PROD013</t>
+          <t>PROD021</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>منتج 13</t>
+          <t>منتج 21</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>2544.38</v>
+        <v>4561.96</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -7099,12 +7087,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 2</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 2</t>
         </is>
       </c>
     </row>
@@ -7125,19 +7113,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>2819.61</v>
+        <v>3262.22</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>accessory</t>
+          <t>fabric</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>processing</t>
+          <t>delivered</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -7149,24 +7137,24 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORD00003</t>
+          <t>ORD00004</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PROD011</t>
+          <t>PROD014</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>منتج 11</t>
+          <t>منتج 14</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>4912.52</v>
+        <v>1999.5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -7180,31 +7168,31 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 3</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORD00003</t>
+          <t>ORD00004</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PROD005</t>
+          <t>PROD001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>منتج 5</t>
+          <t>منتج 1</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>4087.81</v>
+        <v>2301.41</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -7218,7 +7206,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 3</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 4</t>
         </is>
       </c>
     </row>
@@ -7230,19 +7218,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PROD004</t>
+          <t>PROD022</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>منتج 4</t>
+          <t>منتج 22</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>1543.95</v>
+        <v>4996.25</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -7256,7 +7244,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 4</t>
+          <t>ملاحظات عن العنصر 3 في الطلب 4</t>
         </is>
       </c>
     </row>
@@ -7268,19 +7256,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PROD010</t>
+          <t>PROD020</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>منتج 10</t>
+          <t>منتج 20</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1690.42</v>
+        <v>3824.51</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -7289,36 +7277,36 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>processing</t>
+          <t>ready</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 4</t>
+          <t>ملاحظات عن العنصر 4 في الطلب 4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORD00004</t>
+          <t>ORD00005</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PROD004</t>
+          <t>PROD011</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>منتج 4</t>
+          <t>منتج 11</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>1543.95</v>
+        <v>2797.81</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -7327,36 +7315,36 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 4</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORD00004</t>
+          <t>ORD00006</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PROD003</t>
+          <t>PROD022</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>منتج 3</t>
+          <t>منتج 22</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>2212.83</v>
+        <v>4996.25</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -7370,35 +7358,35 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 4 في الطلب 4</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 6</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORD00004</t>
+          <t>ORD00007</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PROD030</t>
+          <t>PROD020</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>منتج 30</t>
+          <t>منتج 20</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>3478.17</v>
+        <v>3824.51</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -7408,145 +7396,145 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 5 في الطلب 4</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 7</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORD00005</t>
+          <t>ORD00007</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PROD015</t>
+          <t>PROD018</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>منتج 15</t>
+          <t>منتج 18</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>2819.61</v>
+        <v>4470.56</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>accessory</t>
+          <t>fabric</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ready</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 5</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 7</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORD00005</t>
+          <t>ORD00007</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PROD024</t>
+          <t>PROD029</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>منتج 24</t>
+          <t>منتج 29</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>1198.51</v>
+        <v>4990.72</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>processing</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 5</t>
+          <t>ملاحظات عن العنصر 3 في الطلب 7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORD00005</t>
+          <t>ORD00007</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PROD006</t>
+          <t>PROD005</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>منتج 6</t>
+          <t>منتج 5</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>1097.64</v>
+        <v>2720.95</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>ready</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 5</t>
+          <t>ملاحظات عن العنصر 4 في الطلب 7</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ORD00005</t>
+          <t>ORD00008</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PROD007</t>
+          <t>PROD023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>منتج 7</t>
+          <t>منتج 23</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>2937.45</v>
+        <v>3847.46</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -7555,74 +7543,74 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 4 في الطلب 5</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 8</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ORD00006</t>
+          <t>ORD00008</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PROD012</t>
+          <t>PROD016</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>منتج 12</t>
+          <t>منتج 16</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>3773.81</v>
+        <v>3715.33</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>ready</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 6</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 8</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORD00006</t>
+          <t>ORD00008</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PROD024</t>
+          <t>PROD025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>منتج 24</t>
+          <t>منتج 25</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>1198.51</v>
+        <v>4832.81</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -7631,40 +7619,40 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>delivered</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 6</t>
+          <t>ملاحظات عن العنصر 3 في الطلب 8</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORD00006</t>
+          <t>ORD00009</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PROD029</t>
+          <t>PROD021</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>منتج 29</t>
+          <t>منتج 21</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>1580.57</v>
+        <v>4561.96</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -7674,31 +7662,31 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 6</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 9</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ORD00006</t>
+          <t>ORD00009</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PROD003</t>
+          <t>PROD026</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>منتج 3</t>
+          <t>منتج 26</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>2212.83</v>
+        <v>4731.41</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -7712,35 +7700,35 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 4 في الطلب 6</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 9</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ORD00007</t>
+          <t>ORD00009</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PROD008</t>
+          <t>PROD003</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>منتج 8</t>
+          <t>منتج 3</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>1380.47</v>
+        <v>4042.45</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>accessory</t>
+          <t>fabric</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -7750,31 +7738,31 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 7</t>
+          <t>ملاحظات عن العنصر 3 في الطلب 9</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORD00008</t>
+          <t>ORD00010</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PROD028</t>
+          <t>PROD019</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>منتج 28</t>
+          <t>منتج 19</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
-        <v>1018.59</v>
+        <v>4822.89</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -7783,78 +7771,78 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 8</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 10</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ORD00008</t>
+          <t>ORD00010</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PROD028</t>
+          <t>PROD016</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>منتج 28</t>
+          <t>منتج 16</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
-        <v>1018.59</v>
+        <v>3715.33</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>accessory</t>
+          <t>fabric</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 8</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 10</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORD00008</t>
+          <t>ORD00010</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PROD024</t>
+          <t>PROD013</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>منتج 24</t>
+          <t>منتج 13</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>1198.51</v>
+        <v>4160.85</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -7864,31 +7852,31 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 8</t>
+          <t>ملاحظات عن العنصر 3 في الطلب 10</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORD00008</t>
+          <t>ORD00010</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PROD018</t>
+          <t>PROD005</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>منتج 18</t>
+          <t>منتج 5</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>1338.03</v>
+        <v>2720.95</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -7897,112 +7885,112 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 4 في الطلب 8</t>
+          <t>ملاحظات عن العنصر 4 في الطلب 10</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORD00008</t>
+          <t>ORD00010</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PROD014</t>
+          <t>PROD002</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>منتج 14</t>
+          <t>منتج 2</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>1005.69</v>
+        <v>4347.03</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>ready</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 5 في الطلب 8</t>
+          <t>ملاحظات عن العنصر 5 في الطلب 10</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ORD00009</t>
+          <t>ORD00011</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PROD019</t>
+          <t>PROD022</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>منتج 19</t>
+          <t>منتج 22</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>2813.79</v>
+        <v>4996.25</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>processing</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 9</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 11</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORD00009</t>
+          <t>ORD00011</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PROD002</t>
+          <t>PROD019</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>منتج 2</t>
+          <t>منتج 19</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>3940.32</v>
+        <v>4822.89</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -8011,133 +7999,133 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ready</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 9</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 11</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ORD00009</t>
+          <t>ORD00011</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PROD010</t>
+          <t>PROD002</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>منتج 10</t>
+          <t>منتج 2</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E30" t="n">
-        <v>1690.42</v>
+        <v>4347.03</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>accessory</t>
+          <t>fabric</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>processing</t>
+          <t>ready</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 9</t>
+          <t>ملاحظات عن العنصر 3 في الطلب 11</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ORD00009</t>
+          <t>ORD00012</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PROD003</t>
+          <t>PROD011</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>منتج 3</t>
+          <t>منتج 11</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>2212.83</v>
+        <v>2797.81</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>delivered</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 4 في الطلب 9</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 12</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORD00010</t>
+          <t>ORD00012</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PROD021</t>
+          <t>PROD012</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>منتج 21</t>
+          <t>منتج 12</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>331.59</v>
+        <v>2307.64</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>processing</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 10</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 12</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORD00010</t>
+          <t>ORD00012</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -8151,10 +8139,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E33" t="n">
-        <v>567.39</v>
+        <v>51.85</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -8163,74 +8151,74 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 10</t>
+          <t>ملاحظات عن العنصر 3 في الطلب 12</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ORD00010</t>
+          <t>ORD00013</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PROD020</t>
+          <t>PROD017</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>منتج 20</t>
+          <t>منتج 17</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E34" t="n">
-        <v>3301.81</v>
+        <v>3212.11</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>processing</t>
+          <t>ready</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 10</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 13</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ORD00011</t>
+          <t>ORD00013</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PROD004</t>
+          <t>PROD028</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>منتج 4</t>
+          <t>منتج 28</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E35" t="n">
-        <v>1543.95</v>
+        <v>1948.64</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -8244,35 +8232,35 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 11</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 13</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ORD00011</t>
+          <t>ORD00013</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PROD011</t>
+          <t>PROD003</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>منتج 11</t>
+          <t>منتج 3</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E36" t="n">
-        <v>4912.52</v>
+        <v>4042.45</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -8282,14 +8270,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 11</t>
+          <t>ملاحظات عن العنصر 3 في الطلب 13</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ORD00011</t>
+          <t>ORD00013</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -8303,86 +8291,86 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E37" t="n">
-        <v>4912.52</v>
+        <v>2797.81</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 11</t>
+          <t>ملاحظات عن العنصر 4 في الطلب 13</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ORD00011</t>
+          <t>ORD00014</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PROD013</t>
+          <t>PROD002</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>منتج 13</t>
+          <t>منتج 2</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E38" t="n">
-        <v>2544.38</v>
+        <v>4347.03</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>ready</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 4 في الطلب 11</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 14</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ORD00012</t>
+          <t>ORD00015</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PROD022</t>
+          <t>PROD023</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>منتج 22</t>
+          <t>منتج 23</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39" t="n">
-        <v>2870.85</v>
+        <v>3847.46</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -8396,14 +8384,14 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 12</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 15</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ORD00013</t>
+          <t>ORD00015</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -8417,48 +8405,48 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1005.69</v>
+        <v>1999.5</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>accessory</t>
+          <t>fabric</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>ready</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 13</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 15</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ORD00013</t>
+          <t>ORD00015</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PROD026</t>
+          <t>PROD023</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>منتج 26</t>
+          <t>منتج 23</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E41" t="n">
-        <v>312.43</v>
+        <v>3847.46</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -8467,36 +8455,36 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 13</t>
+          <t>ملاحظات عن العنصر 3 في الطلب 15</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORD00013</t>
+          <t>ORD00016</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PROD004</t>
+          <t>PROD016</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>منتج 4</t>
+          <t>منتج 16</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E42" t="n">
-        <v>1543.95</v>
+        <v>3715.33</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -8505,36 +8493,36 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>delivered</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 13</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 16</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ORD00014</t>
+          <t>ORD00017</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PROD026</t>
+          <t>PROD008</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>منتج 26</t>
+          <t>منتج 8</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>312.43</v>
+        <v>1743.1</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -8543,78 +8531,78 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>ready</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 14</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 17</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ORD00014</t>
+          <t>ORD00017</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PROD030</t>
+          <t>PROD018</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>منتج 30</t>
+          <t>منتج 18</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E44" t="n">
-        <v>3478.17</v>
+        <v>4470.56</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>delivered</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 14</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 17</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ORD00015</t>
+          <t>ORD00018</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PROD016</t>
+          <t>PROD014</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>منتج 16</t>
+          <t>منتج 14</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E45" t="n">
-        <v>104.2</v>
+        <v>1999.5</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -8624,31 +8612,31 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 15</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 18</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ORD00015</t>
+          <t>ORD00018</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PROD021</t>
+          <t>PROD017</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>منتج 21</t>
+          <t>منتج 17</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E46" t="n">
-        <v>331.59</v>
+        <v>3212.11</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -8657,36 +8645,36 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>ready</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 15</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 18</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ORD00016</t>
+          <t>ORD00019</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PROD005</t>
+          <t>PROD001</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>منتج 5</t>
+          <t>منتج 1</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E47" t="n">
-        <v>4087.81</v>
+        <v>2301.41</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -8695,57 +8683,57 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>ready</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 16</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 19</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ORD00016</t>
+          <t>ORD00019</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PROD026</t>
+          <t>PROD010</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>منتج 26</t>
+          <t>منتج 10</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>312.43</v>
+        <v>1714.64</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>accessory</t>
+          <t>fabric</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>processing</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 16</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 19</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORD00016</t>
+          <t>ORD00019</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -8759,86 +8747,86 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E49" t="n">
-        <v>3773.81</v>
+        <v>2307.64</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>accessory</t>
+          <t>fabric</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 16</t>
+          <t>ملاحظات عن العنصر 3 في الطلب 19</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ORD00017</t>
+          <t>ORD00019</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PROD021</t>
+          <t>PROD018</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>منتج 21</t>
+          <t>منتج 18</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E50" t="n">
-        <v>331.59</v>
+        <v>4470.56</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>accessory</t>
+          <t>fabric</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 17</t>
+          <t>ملاحظات عن العنصر 4 في الطلب 19</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ORD00017</t>
+          <t>ORD00019</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PROD008</t>
+          <t>PROD002</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>منتج 8</t>
+          <t>منتج 2</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E51" t="n">
-        <v>1380.47</v>
+        <v>4347.03</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -8852,145 +8840,145 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 17</t>
+          <t>ملاحظات عن العنصر 5 في الطلب 19</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ORD00017</t>
+          <t>ORD00020</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PROD013</t>
+          <t>PROD014</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>منتج 13</t>
+          <t>منتج 14</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E52" t="n">
-        <v>2544.38</v>
+        <v>1999.5</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>delivered</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 17</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 20</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ORD00017</t>
+          <t>ORD00020</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PROD002</t>
+          <t>PROD026</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>منتج 2</t>
+          <t>منتج 26</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E53" t="n">
-        <v>3940.32</v>
+        <v>4731.41</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 4 في الطلب 17</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 20</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ORD00018</t>
+          <t>ORD00020</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PROD003</t>
+          <t>PROD019</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>منتج 3</t>
+          <t>منتج 19</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E54" t="n">
-        <v>2212.83</v>
+        <v>4822.89</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>ready</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 18</t>
+          <t>ملاحظات عن العنصر 3 في الطلب 20</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ORD00018</t>
+          <t>ORD00021</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PROD003</t>
+          <t>PROD027</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>منتج 3</t>
+          <t>منتج 27</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>2212.83</v>
+        <v>51.85</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -8999,40 +8987,40 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>ready</t>
+          <t>delivered</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 18</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 21</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ORD00018</t>
+          <t>ORD00021</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PROD011</t>
+          <t>PROD027</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>منتج 11</t>
+          <t>منتج 27</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E56" t="n">
-        <v>4912.52</v>
+        <v>51.85</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -9042,52 +9030,52 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 18</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 21</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ORD00018</t>
+          <t>ORD00021</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PROD021</t>
+          <t>PROD002</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>منتج 21</t>
+          <t>منتج 2</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E57" t="n">
-        <v>331.59</v>
+        <v>4347.03</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>accessory</t>
+          <t>fabric</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>ready</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 4 في الطلب 18</t>
+          <t>ملاحظات عن العنصر 3 في الطلب 21</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ORD00018</t>
+          <t>ORD00022</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -9101,48 +9089,48 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>331.59</v>
+        <v>4561.96</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>delivered</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 5 في الطلب 18</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 22</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ORD00019</t>
+          <t>ORD00023</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PROD011</t>
+          <t>PROD021</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>منتج 11</t>
+          <t>منتج 21</t>
         </is>
       </c>
       <c r="D59" t="n">
         <v>5</v>
       </c>
       <c r="E59" t="n">
-        <v>4912.52</v>
+        <v>4561.96</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -9151,36 +9139,36 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 19</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 23</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ORD00019</t>
+          <t>ORD00023</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PROD015</t>
+          <t>PROD028</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>منتج 15</t>
+          <t>منتج 28</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E60" t="n">
-        <v>2819.61</v>
+        <v>1948.64</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -9189,36 +9177,36 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>ready</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 19</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 23</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ORD00019</t>
+          <t>ORD00024</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PROD006</t>
+          <t>PROD005</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>منتج 6</t>
+          <t>منتج 5</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>1097.64</v>
+        <v>2720.95</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -9227,40 +9215,40 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>delivered</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 19</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 24</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ORD00019</t>
+          <t>ORD00025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PROD001</t>
+          <t>PROD002</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>منتج 1</t>
+          <t>منتج 2</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E62" t="n">
-        <v>3641.46</v>
+        <v>4347.03</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -9270,31 +9258,31 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 4 في الطلب 19</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 25</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ORD00020</t>
+          <t>ORD00025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PROD004</t>
+          <t>PROD030</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>منتج 4</t>
+          <t>منتج 30</t>
         </is>
       </c>
       <c r="D63" t="n">
         <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>1543.95</v>
+        <v>554.3099999999999</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -9303,36 +9291,36 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>ready</t>
+          <t>delivered</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 20</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 25</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ORD00020</t>
+          <t>ORD00025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PROD004</t>
+          <t>PROD025</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>منتج 4</t>
+          <t>منتج 25</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E64" t="n">
-        <v>1543.95</v>
+        <v>4832.81</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -9341,36 +9329,36 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ready</t>
+          <t>delivered</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 20</t>
+          <t>ملاحظات عن العنصر 3 في الطلب 25</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ORD00020</t>
+          <t>ORD00025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PROD029</t>
+          <t>PROD003</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>منتج 29</t>
+          <t>منتج 3</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E65" t="n">
-        <v>1580.57</v>
+        <v>4042.45</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -9379,36 +9367,36 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 20</t>
+          <t>ملاحظات عن العنصر 4 في الطلب 25</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ORD00020</t>
+          <t>ORD00026</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PROD012</t>
+          <t>PROD022</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>منتج 12</t>
+          <t>منتج 22</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>3773.81</v>
+        <v>4996.25</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -9417,74 +9405,74 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>processing</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 4 في الطلب 20</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 26</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ORD00021</t>
+          <t>ORD00026</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PROD028</t>
+          <t>PROD027</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>منتج 28</t>
+          <t>منتج 27</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E67" t="n">
-        <v>1018.59</v>
+        <v>51.85</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>ready</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 21</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 26</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ORD00021</t>
+          <t>ORD00026</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PROD005</t>
+          <t>PROD008</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>منتج 5</t>
+          <t>منتج 8</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>4087.81</v>
+        <v>1743.1</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -9498,31 +9486,31 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 21</t>
+          <t>ملاحظات عن العنصر 3 في الطلب 26</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ORD00022</t>
+          <t>ORD00026</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PROD013</t>
+          <t>PROD026</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>منتج 13</t>
+          <t>منتج 26</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E69" t="n">
-        <v>2544.38</v>
+        <v>4731.41</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -9531,36 +9519,36 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>ready</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 22</t>
+          <t>ملاحظات عن العنصر 4 في الطلب 26</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ORD00022</t>
+          <t>ORD00027</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PROD027</t>
+          <t>PROD009</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>منتج 27</t>
+          <t>منتج 9</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E70" t="n">
-        <v>567.39</v>
+        <v>4550.22</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -9569,36 +9557,36 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>ready</t>
+          <t>delivered</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 22</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 27</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ORD00022</t>
+          <t>ORD00027</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PROD013</t>
+          <t>PROD028</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>منتج 13</t>
+          <t>منتج 28</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E71" t="n">
-        <v>2544.38</v>
+        <v>1948.64</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -9612,69 +9600,69 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 22</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 27</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ORD00023</t>
+          <t>ORD00027</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PROD001</t>
+          <t>PROD012</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>منتج 1</t>
+          <t>منتج 12</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>3641.46</v>
+        <v>2307.64</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>accessory</t>
+          <t>fabric</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>ready</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 23</t>
+          <t>ملاحظات عن العنصر 3 في الطلب 27</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ORD00023</t>
+          <t>ORD00027</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PROD009</t>
+          <t>PROD016</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>منتج 9</t>
+          <t>منتج 16</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E73" t="n">
-        <v>1547.81</v>
+        <v>3715.33</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -9683,78 +9671,78 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 23</t>
+          <t>ملاحظات عن العنصر 4 في الطلب 27</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ORD00024</t>
+          <t>ORD00027</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PROD025</t>
+          <t>PROD004</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>منتج 25</t>
+          <t>منتج 4</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E74" t="n">
-        <v>1281.45</v>
+        <v>4707.35</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>accessory</t>
+          <t>fabric</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>delivered</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 24</t>
+          <t>ملاحظات عن العنصر 5 في الطلب 27</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ORD00024</t>
+          <t>ORD00028</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PROD007</t>
+          <t>PROD009</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>منتج 7</t>
+          <t>منتج 9</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>2937.45</v>
+        <v>4550.22</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>accessory</t>
+          <t>fabric</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -9764,35 +9752,35 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 24</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 28</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ORD00024</t>
+          <t>ORD00028</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PROD028</t>
+          <t>PROD003</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>منتج 28</t>
+          <t>منتج 3</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E76" t="n">
-        <v>1018.59</v>
+        <v>4042.45</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -9802,31 +9790,31 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 24</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 28</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ORD00024</t>
+          <t>ORD00028</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PROD023</t>
+          <t>PROD002</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>منتج 23</t>
+          <t>منتج 2</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E77" t="n">
-        <v>4455</v>
+        <v>4347.03</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -9840,31 +9828,31 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 4 في الطلب 24</t>
+          <t>ملاحظات عن العنصر 3 في الطلب 28</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ORD00025</t>
+          <t>ORD00029</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PROD028</t>
+          <t>PROD027</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>منتج 28</t>
+          <t>منتج 27</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E78" t="n">
-        <v>1018.59</v>
+        <v>51.85</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -9873,74 +9861,74 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>delivered</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 25</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 29</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ORD00025</t>
+          <t>ORD00029</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PROD005</t>
+          <t>PROD006</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>منتج 5</t>
+          <t>منتج 6</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E79" t="n">
-        <v>4087.81</v>
+        <v>2935.29</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>processing</t>
+          <t>ready</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 25</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 29</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ORD00025</t>
+          <t>ORD00030</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PROD008</t>
+          <t>PROD015</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>منتج 8</t>
+          <t>منتج 15</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E80" t="n">
-        <v>1380.47</v>
+        <v>3262.22</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -9949,620 +9937,50 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>delivered</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 25</t>
+          <t>ملاحظات عن العنصر 1 في الطلب 30</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ORD00025</t>
+          <t>ORD00030</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PROD025</t>
+          <t>PROD019</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>منتج 25</t>
+          <t>منتج 19</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E81" t="n">
-        <v>1281.45</v>
+        <v>4822.89</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>accessory</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>ready</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>ملاحظات عن العنصر 4 في الطلب 25</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>ORD00026</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>PROD003</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>منتج 3</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>4</v>
-      </c>
-      <c r="E82" t="n">
-        <v>2212.83</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>accessory</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 26</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>ORD00026</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>PROD014</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>منتج 14</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>5</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1005.69</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>accessory</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>ready</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 26</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>ORD00026</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>PROD004</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>منتج 4</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>3</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1543.95</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>accessory</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>processing</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 26</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>ORD00027</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>PROD008</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>منتج 8</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>1</v>
-      </c>
-      <c r="E85" t="n">
-        <v>1380.47</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>fabric</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>delivered</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 27</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>ORD00027</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>PROD009</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>منتج 9</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>10</v>
-      </c>
-      <c r="E86" t="n">
-        <v>1547.81</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>accessory</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>ready</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 27</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>ORD00027</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>PROD018</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>منتج 18</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>6</v>
-      </c>
-      <c r="E87" t="n">
-        <v>1338.03</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>accessory</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 27</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>ORD00028</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>PROD012</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>منتج 12</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>8</v>
-      </c>
-      <c r="E88" t="n">
-        <v>3773.81</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>accessory</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>ready</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 28</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>ORD00028</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>PROD021</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>منتج 21</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>4</v>
-      </c>
-      <c r="E89" t="n">
-        <v>331.59</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>fabric</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>delivered</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 28</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>ORD00028</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>PROD028</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>منتج 28</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>10</v>
-      </c>
-      <c r="E90" t="n">
-        <v>1018.59</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>accessory</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>processing</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 28</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>ORD00029</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>PROD025</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>منتج 25</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>8</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1281.45</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>accessory</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>processing</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 29</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>ORD00029</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>PROD018</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>منتج 18</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>8</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1338.03</v>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>accessory</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>processing</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ملاحظات عن العنصر 2 في الطلب 29</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>ORD00029</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>PROD028</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>منتج 28</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>6</v>
-      </c>
-      <c r="E93" t="n">
-        <v>1018.59</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>fabric</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>ready</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ملاحظات عن العنصر 3 في الطلب 29</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>ORD00029</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>PROD009</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>منتج 9</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>10</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1547.81</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>accessory</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>ready</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ملاحظات عن العنصر 4 في الطلب 29</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>ORD00029</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>PROD029</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>منتج 29</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>7</v>
-      </c>
-      <c r="E95" t="n">
-        <v>1580.57</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>accessory</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>ready</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ملاحظات عن العنصر 5 في الطلب 29</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>ORD00030</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>PROD014</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>منتج 14</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>2</v>
-      </c>
-      <c r="E96" t="n">
-        <v>1005.69</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>accessory</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ملاحظات عن العنصر 1 في الطلب 30</t>
+          <t>ملاحظات عن العنصر 2 في الطلب 30</t>
         </is>
       </c>
     </row>
@@ -10577,7 +9995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10620,101 +10038,101 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORD00001</t>
+          <t>ORD00002</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9483.42</v>
+        <v>38158.61</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>cash</t>
+          <t>check</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-02-22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>REF83514</t>
+          <t>REF46426</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>دفعة للطلب ORD00001</t>
+          <t>دفعة للطلب ORD00002</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORD00002</t>
+          <t>ORD00005</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16211.75</v>
+        <v>11191.24</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cash</t>
+          <t>bank_transfer</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>REF91659</t>
+          <t>REF46017</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>دفعة للطلب ORD00002</t>
+          <t>دفعة للطلب ORD00005</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORD00003</t>
+          <t>ORD00006</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15439.7575</v>
+        <v>22483.125</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>check</t>
+          <t>cash</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>REF18920</t>
+          <t>REF76229</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>دفعة للطلب ORD00003</t>
+          <t>دفعة للطلب ORD00006</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORD00004</t>
+          <t>ORD00007</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24294.91</v>
+        <v>26085.46</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -10723,148 +10141,148 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>REF18245</t>
+          <t>REF81356</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>دفعة للطلب ORD00004</t>
+          <t>دفعة للطلب ORD00007</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORD00007</t>
+          <t>ORD00008</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6902.35</v>
+        <v>32912.73</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>cash</t>
+          <t>check</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>REF85158</t>
+          <t>REF67152</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>دفعة للطلب ORD00007</t>
+          <t>دفعة للطلب ORD00008</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORD00008</t>
+          <t>ORD00009</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24873.01</v>
+        <v>37043.1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>bank_transfer</t>
+          <t>check</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-02-22</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>REF56847</t>
+          <t>REF20494</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>دفعة للطلب ORD00008</t>
+          <t>دفعة للطلب ORD00009</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORD00009</t>
+          <t>ORD00010</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42859.0575</v>
+        <v>125484.1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>cash</t>
+          <t>check</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-01-24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>REF97903</t>
+          <t>REF58800</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>دفعة للطلب ORD00009</t>
+          <t>دفعة للطلب ORD00010</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORD00011</t>
+          <t>ORD00013</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>115236.87</v>
+        <v>20680.7575</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>check</t>
+          <t>cash</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-01-31</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>REF23918</t>
+          <t>REF41571</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>دفعة للطلب ORD00011</t>
+          <t>دفعة للطلب ORD00013</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORD00013</t>
+          <t>ORD00014</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10551.5625</v>
+        <v>21735.15</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -10873,58 +10291,58 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-01-30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>REF54862</t>
+          <t>REF40776</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>دفعة للطلب ORD00013</t>
+          <t>دفعة للطلب ORD00014</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORD00014</t>
+          <t>ORD00015</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3780.24</v>
+        <v>36126.765</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>bank_transfer</t>
+          <t>cash</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>REF56868</t>
+          <t>REF88363</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>دفعة للطلب ORD00014</t>
+          <t>دفعة للطلب ORD00015</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORD00017</t>
+          <t>ORD00016</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>54887.05</v>
+        <v>18576.65</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -10933,118 +10351,118 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-02-15</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>REF81163</t>
+          <t>REF95122</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>دفعة للطلب ORD00017</t>
+          <t>دفعة للطلب ORD00016</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORD00020</t>
+          <t>ORD00018</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31273.215</v>
+        <v>8817.165000000001</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>check</t>
+          <t>bank_transfer</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>REF81822</t>
+          <t>REF14275</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>دفعة للطلب ORD00020</t>
+          <t>دفعة للطلب ORD00018</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORD00022</t>
+          <t>ORD00019</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12726.3375</v>
+        <v>54429.75499999999</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>cash</t>
+          <t>check</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-02-15</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>REF70220</t>
+          <t>REF41364</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>دفعة للطلب ORD00022</t>
+          <t>دفعة للطلب ORD00019</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORD00023</t>
+          <t>ORD00020</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4415.365</v>
+        <v>14442.25</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>check</t>
+          <t>bank_transfer</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>REF87321</t>
+          <t>REF55403</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>دفعة للطلب ORD00023</t>
+          <t>دفعة للطلب ORD00020</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORD00024</t>
+          <t>ORD00021</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16278.1725</v>
+        <v>3363.9725</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -11053,47 +10471,47 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-01-27</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>REF37770</t>
+          <t>REF62747</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>دفعة للطلب ORD00024</t>
+          <t>دفعة للطلب ORD00021</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ORD00025</t>
+          <t>ORD00023</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>74364.57000000001</v>
+        <v>17250.82</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>check</t>
+          <t>bank_transfer</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>REF48002</t>
+          <t>REF39631</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>دفعة للطلب ORD00025</t>
+          <t>دفعة للطلب ORD00023</t>
         </is>
       </c>
     </row>
@@ -11104,21 +10522,21 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13883.715</v>
+        <v>27447.115</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>check</t>
+          <t>cash</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-02-22</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>REF93715</t>
+          <t>REF14956</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -11130,58 +10548,118 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORD00029</t>
+          <t>ORD00027</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40207.10249999999</v>
+        <v>122359.02</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>bank_transfer</t>
+          <t>check</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>REF71022</t>
+          <t>REF81836</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>دفعة للطلب ORD00029</t>
+          <t>دفعة للطلب ORD00027</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>ORD00028</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>41774.58749999999</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>REF85000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>دفعة للطلب ORD00028</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ORD00029</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4558.485</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>REF77391</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>دفعة للطلب ORD00029</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>ORD00030</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>2011.38</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>bank_transfer</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2025-01-24</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>REF92490</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="B22" t="n">
+        <v>28297.885</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-01-25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>REF18457</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>دفعة للطلب ORD00030</t>
         </is>
